--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H2">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>1.181737492675667</v>
+        <v>3.844784628635555</v>
       </c>
       <c r="R2">
-        <v>10.635637434081</v>
+        <v>34.60306165772</v>
       </c>
       <c r="S2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="T2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H3">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>1.533317825424</v>
+        <v>3.30214539424</v>
       </c>
       <c r="R3">
-        <v>13.799860428816</v>
+        <v>29.71930854816</v>
       </c>
       <c r="S3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="T3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H4">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>1.202084770153667</v>
+        <v>2.770012297695555</v>
       </c>
       <c r="R4">
-        <v>10.818762931383</v>
+        <v>24.93011067926</v>
       </c>
       <c r="S4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="T4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H5">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>0.619797908257</v>
+        <v>1.278259958722222</v>
       </c>
       <c r="R5">
-        <v>5.578181174312999</v>
+        <v>11.5043396285</v>
       </c>
       <c r="S5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="T5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
     </row>
   </sheetData>
